--- a/media/exl/PwC.Cohort_003_Cohort Report Data.xlsx
+++ b/media/exl/PwC.Cohort_003_Cohort Report Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Documents\projects\highchart-azure\media\exl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C55333-307C-4A38-9DCD-EC34F9036B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4427CDD-859D-4F88-B44E-34705E691E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="195" windowWidth="14775" windowHeight="14085" activeTab="3" xr2:uid="{CA98C2D1-6EAF-2241-A190-BDFF1D90E60E}"/>
+    <workbookView xWindow="765" yWindow="1080" windowWidth="14835" windowHeight="14085" activeTab="3" xr2:uid="{CA98C2D1-6EAF-2241-A190-BDFF1D90E60E}"/>
   </bookViews>
   <sheets>
     <sheet name="pg1" sheetId="1" r:id="rId1"/>
@@ -1487,7 +1487,7 @@
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/media/exl/PwC.Cohort_003_Cohort Report Data.xlsx
+++ b/media/exl/PwC.Cohort_003_Cohort Report Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Documents\projects\highchart-azure\media\exl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76a04a907a683299/Documents/VSCode/highchart-backend/media/exl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4427CDD-859D-4F88-B44E-34705E691E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{63C55333-307C-4A38-9DCD-EC34F9036B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D465C69B-D366-4011-BDC9-E17A27C1BE9A}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="1080" windowWidth="14835" windowHeight="14085" activeTab="3" xr2:uid="{CA98C2D1-6EAF-2241-A190-BDFF1D90E60E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CA98C2D1-6EAF-2241-A190-BDFF1D90E60E}"/>
   </bookViews>
   <sheets>
     <sheet name="pg1" sheetId="1" r:id="rId1"/>
@@ -727,16 +727,16 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -744,7 +744,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -752,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -760,7 +760,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
@@ -768,7 +768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
@@ -776,7 +776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>85</v>
       </c>
@@ -784,7 +784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -792,7 +792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -800,10 +800,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -811,7 +811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>67</v>
       </c>
@@ -820,7 +820,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="8"/>
     </row>
   </sheetData>
@@ -839,16 +839,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36ED857-F654-D043-AB4F-6918458F1E70}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -856,7 +859,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -864,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -872,7 +875,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -880,7 +887,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -888,167 +895,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
@@ -1056,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -1064,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1072,23 +1079,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -1096,39 +1103,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B39" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>59</v>
       </c>
@@ -1144,23 +1151,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B44" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>86</v>
       </c>
@@ -1168,7 +1175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
@@ -1176,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
@@ -1184,7 +1191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
@@ -1192,7 +1199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
@@ -1200,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>86</v>
       </c>
@@ -1208,7 +1215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -1216,31 +1223,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B56" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B57" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="3">
-        <v>30</v>
-      </c>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:B57">
+    <sortCondition descending="1" ref="B55:B57"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1250,17 +1264,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7AD074-50CF-854F-A34F-133D7740F70E}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>86</v>
       </c>
@@ -1268,7 +1282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1284,8 +1298,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1293,7 +1307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1315,7 +1329,7 @@
         <v>0.75982601100000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1326,7 +1340,7 @@
         <v>0.740202111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1337,7 +1351,7 @@
         <v>0.78351011999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1348,7 +1362,7 @@
         <v>0.66209624300000003</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>0.72045435700000005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1370,7 +1384,7 @@
         <v>0.77194014899999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1381,7 +1395,7 @@
         <v>0.58106590599999997</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1392,7 +1406,7 @@
         <v>0.69447690699999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1403,7 +1417,7 @@
         <v>0.69820328899999995</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1414,7 +1428,7 @@
         <v>0.67051434600000004</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -1422,7 +1436,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1433,7 +1447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +1458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -1455,7 +1469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -1466,7 +1480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -1486,13 +1500,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A311DF3-AE8F-CF4E-AEDD-DFDAC923D04F}">
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="117" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1500,7 +1514,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1517,7 +1531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1549,7 @@
         <v>0.78378378300000007</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1553,7 +1567,7 @@
         <v>0.35135135099999992</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1571,7 +1585,7 @@
         <v>1.1621621619999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1589,7 +1603,7 @@
         <v>0.43243243200000059</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1607,7 +1621,7 @@
         <v>1.1621621629999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -1625,7 +1639,7 @@
         <v>0.45945945900000051</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -1643,7 +1657,7 @@
         <v>1.4594594590000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1661,7 +1675,7 @@
         <v>0.5945945939999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1679,7 +1693,7 @@
         <v>1.5405405400000003</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1697,7 +1711,7 @@
         <v>0.40540540499999977</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1715,7 +1729,7 @@
         <v>1.2702702699999997</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1733,7 +1747,7 @@
         <v>0.45945945900000051</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1751,7 +1765,7 @@
         <v>0.91891891899999978</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1769,7 +1783,7 @@
         <v>0.48648648600000044</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -1787,7 +1801,7 @@
         <v>0.97297297200000044</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -1805,7 +1819,7 @@
         <v>0.40540540599999986</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1823,7 +1837,7 @@
         <v>0.83783783800000045</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1841,7 +1855,7 @@
         <v>0.40540540599999986</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1859,7 +1873,7 @@
         <v>0.75675675700000022</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1877,7 +1891,7 @@
         <v>0.24324324399999941</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1895,7 +1909,7 @@
         <v>0.97297297200000044</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1923,13 +1937,16 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1937,7 +1954,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1945,7 +1962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1953,7 +1970,7 @@
         <v>8.2281250000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1961,7 +1978,7 @@
         <v>8.8718749999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -1969,7 +1986,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1980,7 +1997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -1991,7 +2008,7 @@
         <v>8.7222222219999992</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>69</v>
       </c>
@@ -2002,7 +2019,7 @@
         <v>9.1621621619999996</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -2013,7 +2030,7 @@
         <v>9.0810810810000007</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
@@ -2024,7 +2041,7 @@
         <v>8.6944444440000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>72</v>
       </c>
@@ -2035,7 +2052,7 @@
         <v>9.085714286</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -2046,7 +2063,7 @@
         <v>8.8529411759999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
@@ -2057,7 +2074,7 @@
         <v>8.7941176470000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -2068,7 +2085,7 @@
         <v>8.5172413789999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -2079,7 +2096,7 @@
         <v>8.9565217389999994</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
